--- a/resources/outputmercari.xlsx
+++ b/resources/outputmercari.xlsx
@@ -4494,15 +4494,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2002 Nike Dunk Low Pro “Obsidian”</t>
+          <t>Nike Dunk Low Pro ‘Obsidian’ 2002</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>480</v>
+        <v>244.43</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.mercari.com/us/item/m42534136936</t>
+          <t>https://www.mercari.com/us/item/m10981889616</t>
         </is>
       </c>
     </row>
@@ -4544,15 +4544,15 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Pro ‘Obsidian’ 2002</t>
+          <t>2002 Nike Dunk Low Pro “Obsidian”</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>244.43</v>
+        <v>480</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4562,7 +4562,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.mercari.com/us/item/m10981889616</t>
+          <t>https://www.mercari.com/us/item/m42534136936</t>
         </is>
       </c>
     </row>
@@ -4957,57 +4957,57 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ENLIGHTENMENT CENTER T-SHIRT</t>
+          <t>Rare 2011 Nike Dunk Low Pro SB French Blue Sunset</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>256.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>T-Shirts for Men</t>
+          <t>Athletic Shoes for Men</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.mercari.com/us/item/m61541399966</t>
+          <t>https://www.mercari.com/us/item/m12270846725</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Rare 2011 Nike Dunk Low Pro SB French Blue Sunset</t>
+          <t>ENLIGHTENMENT CENTER T-SHIRT</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>256.5</v>
+        <v>15</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Athletic Shoes for Men</t>
+          <t>T-Shirts for Men</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.mercari.com/us/item/m12270846725</t>
+          <t>https://www.mercari.com/us/item/m61541399966</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HUF T-SHIRT</t>
+          <t>HUF T-SHIRT RIZZO</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.mercari.com/us/item/m30543973135</t>
+          <t>https://www.mercari.com/us/item/m34777256088</t>
         </is>
       </c>
     </row>
@@ -5107,7 +5107,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HUF T-SHIRT RIZZO</t>
+          <t>HUF T-SHIRT</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -5125,47 +5125,47 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.mercari.com/us/item/m34777256088</t>
+          <t>https://www.mercari.com/us/item/m30543973135</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HUF T SHIRT</t>
+          <t>2000 NIKE DUNK HIGH LE REVERSE GEORGETOWN OBSIDIAN sb stussy</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>131.13</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>T-Shirts for Men</t>
+          <t>Athletic Shoes for Men</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.mercari.com/us/item/m58206048512</t>
+          <t>https://www.mercari.com/us/item/m60764071206</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2000 NIKE DUNK HIGH LE REVERSE GEORGETOWN OBSIDIAN sb stussy</t>
+          <t>Nike Dunk Low</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>131.13</v>
+        <v>200</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.mercari.com/us/item/m60764071206</t>
+          <t>https://www.mercari.com/us/item/m98900645586</t>
         </is>
       </c>
     </row>
@@ -5257,36 +5257,36 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Nike Dunk Low</t>
+          <t>HUF T SHIRT</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Athletic Shoes for Men</t>
+          <t>T-Shirts for Men</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.mercari.com/us/item/m98900645586</t>
+          <t>https://www.mercari.com/us/item/m58206048512</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HUF T-SHIRT</t>
+          <t>HUF RIZZO T-SHIRT</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.mercari.com/us/item/m74766543277</t>
+          <t>https://www.mercari.com/us/item/m27999141307</t>
         </is>
       </c>
     </row>
@@ -5332,15 +5332,15 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Vintage Stussy Nike Dunk SB Sneaker Logo Skateboarding T-Shirt</t>
+          <t>HUF T-SHIRT</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>40.6</v>
+        <v>13</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.mercari.com/us/item/m18728677383</t>
+          <t>https://www.mercari.com/us/item/m74766543277</t>
         </is>
       </c>
     </row>
